--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,94 +40,109 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>saudi</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>stop</t>
@@ -136,9 +151,6 @@
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -157,133 +169,172 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -641,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8378378378378378</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.797945205479452</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8076923076923077</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.795774647887324</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6538461538461539</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,16 +1232,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1210,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.64</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.7875</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.582010582010582</v>
+        <v>0.64</v>
       </c>
       <c r="C17">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,16 +1532,16 @@
         <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5483870967741935</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.76875</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5387596899224806</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C20">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D20">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5098039215686274</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.723404255319149</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4765100671140939</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.696969696969697</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4516129032258064</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.6617647058823529</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1802,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4516129032258064</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1911,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4107142857142857</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1961,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.6101694915254238</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +2011,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.6063829787234043</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +2061,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3846153846153846</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.5857142857142857</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,13 +2111,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3818181818181818</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2078,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.5774058577405857</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L30">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="M30">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3783783783783784</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2128,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.5538461538461539</v>
+        <v>0.62</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2152,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2178,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.550561797752809</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L32">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2202,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2210,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2658730158730159</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C33">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2228,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.5098039215686274</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2252,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2260,13 +2311,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2625</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2278,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.48</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2302,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2310,13 +2361,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2555555555555555</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2328,19 +2379,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.4242424242424243</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2352,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2360,13 +2411,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2337662337662338</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2378,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2402,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2410,13 +2461,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1662198391420912</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C37">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2428,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.3835616438356164</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2452,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2460,13 +2511,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.06333333333333334</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2478,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.3571428571428572</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2502,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2510,37 +2561,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01293103448275862</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1145</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.3461538461538461</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2552,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2560,37 +2611,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00935785737334624</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3070</v>
+        <v>59</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.203125</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2602,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2610,37 +2661,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008415147265077139</v>
+        <v>0.160857908847185</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2121</v>
+        <v>313</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>0.1192660550458716</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2652,15 +2703,39 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.08666666666666667</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>274</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.07567567567567568</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
         <v>14</v>
@@ -2678,15 +2753,39 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>171</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.01379310344827586</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>0.06</v>
+      </c>
+      <c r="F43">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1144</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.03125</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2704,33 +2803,443 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>403</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.01290322580645161</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>47</v>
+      </c>
+      <c r="E44">
+        <v>0.15</v>
+      </c>
+      <c r="F44">
+        <v>0.85</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3060</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.008466603951081843</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.01220084467386204</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>38</v>
+      </c>
+      <c r="E45">
+        <v>0.32</v>
+      </c>
+      <c r="F45">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2105</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L45">
+        <v>23</v>
+      </c>
+      <c r="M45">
+        <v>23</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.005349276274386407</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>0.57</v>
+      </c>
+      <c r="F46">
+        <v>0.43</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3161</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <v>0.4</v>
+      </c>
+      <c r="L46">
+        <v>18</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>27</v>
       </c>
-      <c r="M44">
-        <v>39</v>
-      </c>
-      <c r="N44">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3162</v>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>24</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>0.3125</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53">
+        <v>0.1203703703703704</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>0.93</v>
+      </c>
+      <c r="O53">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="L54">
+        <v>19</v>
+      </c>
+      <c r="M54">
+        <v>19</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K56">
+        <v>0.01569506726457399</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>16</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57">
+        <v>0.007223618090452261</v>
+      </c>
+      <c r="L57">
+        <v>23</v>
+      </c>
+      <c r="M57">
+        <v>40</v>
+      </c>
+      <c r="N57">
+        <v>0.57</v>
+      </c>
+      <c r="O57">
+        <v>0.43</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3161</v>
       </c>
     </row>
   </sheetData>
